--- a/tl/S91028.MES.BIN.xlsx
+++ b/tl/S91028.MES.BIN.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07656319-6E86-4B54-A0D2-5D100EAC54B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67FD797-E3EF-45F1-AB36-D30104D4AF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="6480" windowWidth="43200" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="54585" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S91028.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="42">
   <si>
     <t>Status</t>
   </si>
@@ -56,7 +56,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>As soon as I enter the room, I start feeling dizzy...</t>
+    <t>I start to feel dizzy as soon as I enter the room…</t>
   </si>
   <si>
     <t>5</t>
@@ -68,30 +68,42 @@
     <t>7</t>
   </si>
   <si>
-    <t>What a mess I am...</t>
+    <t>I'm so pathetic…</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>I almost collapsed as soon as I entered the room…</t>
+  </si>
+  <si>
     <t>I fall down as soon as I enter the room...</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
+    <t>Somehow, I made it to the bed, but it might be a bit tough.</t>
+  </si>
+  <si>
     <t>Somehow I manage to make it to the bed, but it might be a bit tough.</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
+    <t>For now, I'll rest tonight,</t>
+  </si>
+  <si>
     <t>For now, I'll take a break for tonight.</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
+    <t>and see if I recover by tomorrow…</t>
+  </si>
+  <si>
     <t>Let's see if I can recover tomorrow...</t>
   </si>
   <si>
@@ -116,10 +128,16 @@
     <t>23</t>
   </si>
   <si>
+    <t>I don't feel recovered at all.</t>
+  </si>
+  <si>
     <t>I don't feel like I've recovered at all.</t>
   </si>
   <si>
     <t>25</t>
+  </si>
+  <si>
+    <t>I'll take today off…</t>
   </si>
   <si>
     <t>I'll take the day off today.</t>
@@ -534,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,9 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -733,10 +749,10 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>9</v>
@@ -753,7 +769,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -765,10 +781,10 @@
         <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>9</v>
@@ -785,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -797,10 +813,10 @@
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>9</v>
@@ -817,7 +833,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -829,10 +845,10 @@
         <v>9</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>9</v>
@@ -849,7 +865,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -864,7 +880,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
@@ -881,7 +897,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -896,7 +912,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>9</v>
@@ -913,7 +929,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -928,7 +944,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>9</v>
@@ -945,7 +961,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -957,10 +973,10 @@
         <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>9</v>
@@ -977,7 +993,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -989,10 +1005,10 @@
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>9</v>
